--- a/Dummy.xlsx
+++ b/Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Products\Accounting Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B8D2F-65EA-4B82-8C1D-0B1EC54A7B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B57FE3-0B02-43A9-912B-C497236AEBD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,6 +970,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dummy.xlsx
+++ b/Dummy.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Products\Accounting Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B57FE3-0B02-43A9-912B-C497236AEBD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C477790-BA12-4DFC-B12A-4629A183EE22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dummy" sheetId="1" r:id="rId1"/>
+    <sheet name="Dummy" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -865,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E887A699-08A4-4ED9-8498-85CB5E5714AE}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,6 +994,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
